--- a/data/trans_dic/P29A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P29A-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4309549691278605</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3591520529522375</v>
+        <v>0.3591520529522373</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5130077334717154</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.543772820824505</v>
+        <v>0.542448937588625</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5845281589506618</v>
+        <v>0.5874902519239894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6162271440333438</v>
+        <v>0.613652362756098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5057720115290708</v>
+        <v>0.5098254594887224</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3398322219271178</v>
+        <v>0.3417508184762471</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3672128908464076</v>
+        <v>0.365952894086134</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3767820148983995</v>
+        <v>0.3746291672660157</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3230054221683472</v>
+        <v>0.3229356535130741</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4793174927942667</v>
+        <v>0.4762268665667528</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5059427351354734</v>
+        <v>0.5109034022747253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.521666539489093</v>
+        <v>0.5206711188656176</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.431342477895319</v>
+        <v>0.4299642226506291</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6387400995251397</v>
+        <v>0.6361672577194575</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6865067411182062</v>
+        <v>0.6851377994778269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.709798217273294</v>
+        <v>0.7098813259779837</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5934877165132892</v>
+        <v>0.5957884745653198</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.450636198427133</v>
+        <v>0.4541026690504893</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.487573703027578</v>
+        <v>0.4837105791820646</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4874068403067976</v>
+        <v>0.4851680270852594</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3991885246057331</v>
+        <v>0.3958154443332694</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5488176254298638</v>
+        <v>0.5490587661630553</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5879123699751052</v>
+        <v>0.5891390435633739</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5975937221123669</v>
+        <v>0.5944470574724462</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4924513633855305</v>
+        <v>0.4922985053951779</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5386008665828085</v>
+        <v>0.5389238753888445</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5256333691482445</v>
+        <v>0.5282958679510066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5677799511494717</v>
+        <v>0.5666929345827135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4210519089744</v>
+        <v>0.4169971987473873</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3295598491449416</v>
+        <v>0.3265803451668952</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3199893011716347</v>
+        <v>0.3156131710007458</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4353380751674112</v>
+        <v>0.4416447915323128</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3082717997972308</v>
+        <v>0.306812881352703</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4499195809291739</v>
+        <v>0.4478987195576707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4514000179703935</v>
+        <v>0.4487553016253545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5187792278535273</v>
+        <v>0.518017740885764</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3798501121818244</v>
+        <v>0.3782305487476038</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6406834371712999</v>
+        <v>0.6493649275466864</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6340239256853542</v>
+        <v>0.6378192819211511</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6763453329052429</v>
+        <v>0.6738213177554125</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5144228899369947</v>
+        <v>0.5161327815575238</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.43289542340846</v>
+        <v>0.4324637384215912</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4331774584635777</v>
+        <v>0.4256756417902107</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5423185789833551</v>
+        <v>0.5459781925290882</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3883979459584823</v>
+        <v>0.3858000716631831</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5252114594632771</v>
+        <v>0.5222909893674416</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5284150492554178</v>
+        <v>0.5260744284010309</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5888349200067325</v>
+        <v>0.595255836816371</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4417282765196296</v>
+        <v>0.4398290919302629</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6216014697160344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4832145834166929</v>
+        <v>0.483214583416693</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3363870637766543</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5581544223273205</v>
+        <v>0.55984671111738</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5322622929652702</v>
+        <v>0.5309499706289353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5799876830868808</v>
+        <v>0.5760574265012017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4383608856729241</v>
+        <v>0.4360381077989849</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2698161681087959</v>
+        <v>0.2681755570317418</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2022527318706659</v>
+        <v>0.2059111418812666</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2471135607831497</v>
+        <v>0.2465255976578308</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.19797751437177</v>
+        <v>0.1997086756768299</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4990860662372943</v>
+        <v>0.4985861143852883</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4424302832430825</v>
+        <v>0.4444272277420719</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5048489849743383</v>
+        <v>0.5090042933382788</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3750192386026381</v>
+        <v>0.3801599911744799</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6437727040621893</v>
+        <v>0.6421974065650913</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6151589444761719</v>
+        <v>0.6137720115613987</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6621911635574622</v>
+        <v>0.664338557131144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5382881700434272</v>
+        <v>0.532655420573391</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4118464382016401</v>
+        <v>0.414636312424019</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3119443132030112</v>
+        <v>0.3184786779146146</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3980983347016966</v>
+        <v>0.4070669677674914</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3072750062514242</v>
+        <v>0.301515852960402</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.569597458495012</v>
+        <v>0.5741491678486417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5158444572989678</v>
+        <v>0.5135335889107152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5818139013723197</v>
+        <v>0.5865500145317922</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4528773969082028</v>
+        <v>0.4572569678155827</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5512846643738256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4826317896372736</v>
+        <v>0.4826317896372735</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2574239916278274</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4808228356216756</v>
+        <v>0.482633119754398</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4984058138022852</v>
+        <v>0.5005711912293516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5231925519535174</v>
+        <v>0.5168100138496946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4496464489345471</v>
+        <v>0.4496822759943902</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.225136577216497</v>
+        <v>0.2246920630127909</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2304296750133429</v>
+        <v>0.2298197727221203</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3089805277275862</v>
+        <v>0.3056504062780169</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2417246482215674</v>
+        <v>0.2424778485552543</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3962698415645351</v>
+        <v>0.395076803251587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3958276686331497</v>
+        <v>0.397148466157381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4418771508340347</v>
+        <v>0.438732291571317</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3669648771444798</v>
+        <v>0.3670223351472029</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5388476974218467</v>
+        <v>0.5414928551340165</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5570191664692802</v>
+        <v>0.5613502805859492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5811354706089973</v>
+        <v>0.582418623254763</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5139533414188211</v>
+        <v>0.5154366178713579</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2913015745468993</v>
+        <v>0.2925920146109376</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.29796982733905</v>
+        <v>0.2978772515244948</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3758719671408094</v>
+        <v>0.3725029137739955</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2942577531848123</v>
+        <v>0.2979327383195983</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.440653512693233</v>
+        <v>0.4398989595028</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4461169989324861</v>
+        <v>0.4466712010552204</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4854512318224085</v>
+        <v>0.4864347402962945</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4110408889048813</v>
+        <v>0.4111800575394968</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5316898274910562</v>
+        <v>0.5302598878718705</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5243562421591274</v>
+        <v>0.5280048585095617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4482039348306608</v>
+        <v>0.4460809019385202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4090625268153991</v>
+        <v>0.4066734323856505</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1942781847837517</v>
+        <v>0.1933936904083717</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1780197475506377</v>
+        <v>0.1778680391838104</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2071317028670142</v>
+        <v>0.2052196040946354</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1624154032686606</v>
+        <v>0.1616640938452786</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3302508615648483</v>
+        <v>0.3299568842611943</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3235754661153897</v>
+        <v>0.3231180783764677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3265466132572315</v>
+        <v>0.3250624163051987</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2691883543296746</v>
+        <v>0.2712324843395457</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6376035540394305</v>
+        <v>0.639684872858319</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6133019767693852</v>
+        <v>0.6168057867744614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5298122887817187</v>
+        <v>0.5298341234566736</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.501041100987608</v>
+        <v>0.5019572606176601</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2657981534001805</v>
+        <v>0.2656911587036767</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2410179974395406</v>
+        <v>0.2412510655226964</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2709554027582931</v>
+        <v>0.2722095499937114</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2099936802970998</v>
+        <v>0.2078961498932097</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.396046771694559</v>
+        <v>0.3954343595159533</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3792610768366872</v>
+        <v>0.3777045310144983</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3771755452499856</v>
+        <v>0.3789173680112081</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3180172594002292</v>
+        <v>0.3210805301106854</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3943686758335312</v>
+        <v>0.3936976626081896</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4403354990583729</v>
+        <v>0.4370469753921109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4730501954503367</v>
+        <v>0.4704826031254624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2657311965227657</v>
+        <v>0.2719853705081648</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1394011798046081</v>
+        <v>0.1378439383983873</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1830656950006982</v>
+        <v>0.1851441692193914</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2014327440596085</v>
+        <v>0.1994176477643794</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1250169068984129</v>
+        <v>0.1257411405115029</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1936556350119958</v>
+        <v>0.1945259195827076</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2378917860861058</v>
+        <v>0.2393688933567605</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2646073016009566</v>
+        <v>0.2627063889839905</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.171450805725525</v>
+        <v>0.1656957030032611</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5070091532815769</v>
+        <v>0.5079725086677029</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.561799362858049</v>
+        <v>0.5585037541149351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5908295688337455</v>
+        <v>0.5893159206638893</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.476407238485073</v>
+        <v>0.4597942175131167</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1783639366225192</v>
+        <v>0.1800487583204118</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2322988052644751</v>
+        <v>0.2344287653041561</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2521013572415659</v>
+        <v>0.2527260536522451</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1795976514208622</v>
+        <v>0.1778815793753112</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2341617927450879</v>
+        <v>0.2346017402560772</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2895196609406723</v>
+        <v>0.2887396151093274</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3157793329350186</v>
+        <v>0.3140155829476561</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2319071881874145</v>
+        <v>0.227617779701251</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3072724839006645</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.2421306672629204</v>
+        <v>0.2421306672629203</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3941950847680502</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5319032401417239</v>
+        <v>0.5308620991226759</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5437596241754854</v>
+        <v>0.5435516342296585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5532444621500722</v>
+        <v>0.5513245746356499</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4606771863704814</v>
+        <v>0.4606436123477908</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2305018485960107</v>
+        <v>0.2306255461122479</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2418513128503696</v>
+        <v>0.2415479624464384</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2915204236209041</v>
+        <v>0.2906954977993944</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.229902581196948</v>
+        <v>0.2296210531584569</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3824207867016257</v>
+        <v>0.3821236467852803</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.393255252144867</v>
+        <v>0.3929060758174894</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4246592836547983</v>
+        <v>0.4227926877618972</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3461244055151037</v>
+        <v>0.3454655809028562</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5674090803258602</v>
+        <v>0.5674067533035341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5785073316025647</v>
+        <v>0.5796453777223547</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5877573986128005</v>
+        <v>0.5863317734860773</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4969233462492434</v>
+        <v>0.4976949499964513</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2599008806269285</v>
+        <v>0.2613114268222529</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2732447636542477</v>
+        <v>0.2719878114830312</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3231330750900506</v>
+        <v>0.3226772091986169</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2550888275922508</v>
+        <v>0.2543565973272137</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4069156232699865</v>
+        <v>0.4064462756015538</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4171438755403754</v>
+        <v>0.4190612734413996</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4484001649103371</v>
+        <v>0.4482933420918736</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3688873294348597</v>
+        <v>0.3688408098508783</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>251476</v>
+        <v>250864</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>244902</v>
+        <v>246143</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>257467</v>
+        <v>256391</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>278487</v>
+        <v>280719</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>103467</v>
+        <v>104051</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>112814</v>
+        <v>112427</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>125878</v>
+        <v>125159</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>157759</v>
+        <v>157725</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>367603</v>
+        <v>365233</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>367411</v>
+        <v>371013</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>392242</v>
+        <v>391493</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>448177</v>
+        <v>446745</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>295396</v>
+        <v>294206</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>287628</v>
+        <v>287055</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>296562</v>
+        <v>296597</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>326785</v>
+        <v>328052</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>137202</v>
+        <v>138258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>149790</v>
+        <v>148604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>162837</v>
+        <v>162089</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>194968</v>
+        <v>193321</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>420905</v>
+        <v>421090</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>426936</v>
+        <v>427827</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>449331</v>
+        <v>446965</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>511671</v>
+        <v>511512</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>196234</v>
+        <v>196352</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>211626</v>
+        <v>212698</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>208647</v>
+        <v>208248</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>203457</v>
+        <v>201498</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>121110</v>
+        <v>120015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>104682</v>
+        <v>103250</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>157849</v>
+        <v>160136</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>129994</v>
+        <v>129379</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>329265</v>
+        <v>327786</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>329411</v>
+        <v>327481</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>378745</v>
+        <v>378189</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>343726</v>
+        <v>342260</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>233427</v>
+        <v>236590</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>255266</v>
+        <v>256794</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>248543</v>
+        <v>247615</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>248575</v>
+        <v>249402</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>159085</v>
+        <v>158926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>141710</v>
+        <v>139256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>196639</v>
+        <v>197966</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>163782</v>
+        <v>162687</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>384366</v>
+        <v>382228</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>385612</v>
+        <v>383904</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>429890</v>
+        <v>434578</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>399719</v>
+        <v>398001</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>298065</v>
+        <v>298968</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>315373</v>
+        <v>314596</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>291816</v>
+        <v>289839</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>206550</v>
+        <v>205455</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>45270</v>
+        <v>44995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>50745</v>
+        <v>51662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40053</v>
+        <v>39957</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36916</v>
+        <v>37239</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>350259</v>
+        <v>349908</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>373151</v>
+        <v>374835</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>335838</v>
+        <v>338602</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>246633</v>
+        <v>250014</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>343786</v>
+        <v>342945</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>364491</v>
+        <v>363669</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>333176</v>
+        <v>334257</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>253634</v>
+        <v>250980</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>69100</v>
+        <v>69569</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>78266</v>
+        <v>79905</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64525</v>
+        <v>65978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57297</v>
+        <v>56223</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>399743</v>
+        <v>402938</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>435069</v>
+        <v>433120</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>387037</v>
+        <v>390187</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>297837</v>
+        <v>300717</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>587858</v>
+        <v>590071</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>550395</v>
+        <v>552786</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>581058</v>
+        <v>573969</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>506888</v>
+        <v>506928</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>159928</v>
+        <v>159612</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>171985</v>
+        <v>171530</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>252633</v>
+        <v>249910</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>207769</v>
+        <v>208417</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>765977</v>
+        <v>763671</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>732549</v>
+        <v>734994</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>852042</v>
+        <v>845978</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>729098</v>
+        <v>729212</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>658800</v>
+        <v>662033</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>615122</v>
+        <v>619905</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>645409</v>
+        <v>646834</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>579381</v>
+        <v>581053</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>206929</v>
+        <v>207846</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>222395</v>
+        <v>222326</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>307325</v>
+        <v>304571</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>252923</v>
+        <v>256082</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>851769</v>
+        <v>850311</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>825618</v>
+        <v>826644</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>936063</v>
+        <v>937960</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>816670</v>
+        <v>816946</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>185351</v>
+        <v>184852</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>256197</v>
+        <v>257979</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>269148</v>
+        <v>267873</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>231582</v>
+        <v>230229</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>109847</v>
+        <v>109347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>134071</v>
+        <v>133957</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>150799</v>
+        <v>149406</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>134519</v>
+        <v>133897</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>301856</v>
+        <v>301587</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>401789</v>
+        <v>401221</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>433829</v>
+        <v>431857</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>375348</v>
+        <v>378198</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>222273</v>
+        <v>222999</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>299655</v>
+        <v>301367</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>318154</v>
+        <v>318168</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>283653</v>
+        <v>284172</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>150286</v>
+        <v>150225</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>181516</v>
+        <v>181692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>197264</v>
+        <v>198177</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>173925</v>
+        <v>172188</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>361995</v>
+        <v>361435</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>470935</v>
+        <v>469002</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>501091</v>
+        <v>503405</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>443433</v>
+        <v>447705</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>116028</v>
+        <v>115830</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>115677</v>
+        <v>114814</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>132597</v>
+        <v>131877</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>63039</v>
+        <v>64523</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>173373</v>
+        <v>171436</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>200317</v>
+        <v>202592</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>215672</v>
+        <v>213515</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>105296</v>
+        <v>105906</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>297824</v>
+        <v>299163</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>322805</v>
+        <v>324809</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>357483</v>
+        <v>354914</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>185078</v>
+        <v>178866</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>149168</v>
+        <v>149451</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>147586</v>
+        <v>146721</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>165611</v>
+        <v>165186</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>113017</v>
+        <v>109076</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>221831</v>
+        <v>223926</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>254190</v>
+        <v>256521</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>269923</v>
+        <v>270592</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>151267</v>
+        <v>149822</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>360119</v>
+        <v>360796</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>392861</v>
+        <v>391802</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>426616</v>
+        <v>424233</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>250340</v>
+        <v>245709</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1716053</v>
+        <v>1712694</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1777935</v>
+        <v>1777255</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1814552</v>
+        <v>1808255</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1582738</v>
+        <v>1582623</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>774303</v>
+        <v>774719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>841396</v>
+        <v>840341</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1013068</v>
+        <v>1010201</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>833762</v>
+        <v>832741</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2518415</v>
+        <v>2516458</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2653957</v>
+        <v>2651601</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2868555</v>
+        <v>2855946</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2444423</v>
+        <v>2439770</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1830604</v>
+        <v>1830596</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1891549</v>
+        <v>1895271</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1927749</v>
+        <v>1923073</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1707268</v>
+        <v>1709919</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>873061</v>
+        <v>877799</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>950613</v>
+        <v>946240</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1122926</v>
+        <v>1121341</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>925103</v>
+        <v>922447</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2679725</v>
+        <v>2676634</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2815174</v>
+        <v>2828114</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>3028923</v>
+        <v>3028202</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2605181</v>
+        <v>2604852</v>
       </c>
     </row>
     <row r="32">
